--- a/WIP/Source/FILE_EXCEL/BANGDIEM.xlsx
+++ b/WIP/Source/FILE_EXCEL/BANGDIEM.xlsx
@@ -75,13 +75,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -439,15 +446,20 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -498,8 +510,12 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -515,7 +531,9 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -532,7 +550,9 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>2018</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -549,7 +569,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>2018</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -566,7 +588,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>2018</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -583,7 +607,9 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -600,7 +626,9 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>2018</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -617,7 +645,9 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>2018</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -634,7 +664,9 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -651,7 +683,9 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>2018</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -668,7 +702,9 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>2018</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -685,7 +721,9 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>2018</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -702,7 +740,9 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>2018</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -719,7 +759,9 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>2018</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -736,7 +778,9 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>2018</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
